--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem5/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem5/123/word_level_predictions_123.xlsx
@@ -3518,262 +3518,262 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>Unlocking</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E60" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>takeoff</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>restrictions</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>restrictions</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>19</v>
-      </c>
-      <c r="E62" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K62" t="b">
-        <v>1</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>20</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>2</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>recommended</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9261,291 +9261,291 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G170" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I170" t="b">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>6</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2.</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>31</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G170" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I170" t="b">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K170" t="b">
-        <v>1</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+      <c r="G171" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I171" t="b">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
         <v>6</v>
       </c>
-      <c r="B171" s="2" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C171" s="2" t="inlineStr">
-        <is>
-          <t>2.</t>
-        </is>
-      </c>
-      <c r="D171" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="E171" s="2" t="inlineStr">
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Calibrate</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>32</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F171" s="2" t="inlineStr">
+      <c r="G172" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>6</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Compass</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>33</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G173" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I173" t="b">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>6</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Before</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>34</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>6</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Takeoff</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>35</v>
+      </c>
+      <c r="E175" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G171" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L171" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B172" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C172" s="2" t="inlineStr">
-        <is>
-          <t>Calibrate</t>
-        </is>
-      </c>
-      <c r="D172" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="E172" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F172" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G172" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L172" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B173" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C173" s="2" t="inlineStr">
-        <is>
-          <t>Compass</t>
-        </is>
-      </c>
-      <c r="D173" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="E173" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F173" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G173" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I173" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L173" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B174" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C174" s="2" t="inlineStr">
-        <is>
-          <t>Before</t>
-        </is>
-      </c>
-      <c r="D174" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="E174" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F174" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B175" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C175" s="2" t="inlineStr">
-        <is>
-          <t>Takeoff</t>
-        </is>
-      </c>
-      <c r="D175" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="E175" s="2" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem5/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem5/123/word_level_predictions_123.xlsx
@@ -3518,262 +3518,262 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" t="n">
         <v>2</v>
       </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Unlocking</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" t="n">
         <v>17</v>
       </c>
-      <c r="E60" s="2" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" t="n">
         <v>2</v>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>takeoff</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" t="n">
         <v>18</v>
       </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" t="n">
         <v>2</v>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>restrictions</t>
         </is>
       </c>
-      <c r="D62" s="2" t="n">
+      <c r="D62" t="n">
         <v>19</v>
       </c>
-      <c r="E62" s="2" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I62" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L62" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" t="n">
         <v>2</v>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" t="n">
         <v>20</v>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
         <v>2</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>recommended</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" t="n">
         <v>21</v>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G170" t="b">
@@ -9285,267 +9285,267 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
+      <c r="A171" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C171" s="2" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="D171" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="E171" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="F171" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G171" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I171" t="b">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K171" t="b">
-        <v>1</v>
-      </c>
-      <c r="L171" t="inlineStr">
+      <c r="G171" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J171" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L171" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_E</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C172" s="2" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D172" t="n">
+      <c r="D172" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G172" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I172" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K172" t="b">
-        <v>1</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G172" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
+      <c r="A173" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B173" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C173" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D173" t="n">
+      <c r="D173" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G173" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I173" t="b">
-        <v>1</v>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K173" t="b">
-        <v>1</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G173" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I173" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J173" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L173" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>Before</t>
         </is>
       </c>
-      <c r="D174" t="n">
+      <c r="D174" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D175" t="n">
+      <c r="D175" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="E175" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
